--- a/YSteam開発資料まとめ/試験項目書/試験項目書_ranking-ヨウ修正版.xlsx
+++ b/YSteam開発資料まとめ/試験項目書/試験項目書_ranking-ヨウ修正版.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60FC5F61-AEFE-4371-816B-49FDBEE7B5D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B523399-034E-4905-B711-09FC22EE3902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="単体試験項目書" sheetId="8" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -107,16 +107,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>OK</t>
-  </si>
-  <si>
-    <t>ログイン画面</t>
-    <rPh sb="4" eb="6">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>試験対象</t>
     <rPh sb="0" eb="4">
       <t>シケンタイショウ</t>
@@ -146,14 +136,83 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>①リザルト画面でクリックする</t>
+    <t>①rankingメソッドを実行</t>
+    <rPh sb="13" eb="15">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①画面の内容とデータベースの内容が一致していること</t>
+    <rPh sb="1" eb="3">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>イッチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ランキング画面</t>
     <rPh sb="5" eb="7">
       <t>ガメン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">①ランキング画面が表示されること
+    <t>①データベースのm_userテーブルを空にする
+②ブラウザでlocalhost:8080/rankingにアクセスする</t>
+    <rPh sb="19" eb="20">
+      <t>カラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①データベースのm_userテーブルにデータを作る
+②ブラウザでlocalhost:8080/rankingにアクセスする</t>
+    <rPh sb="23" eb="24">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>①</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>result</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック Medium"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>画面でクリックする</t>
+    </r>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">①ランキング画面が表示されること（ユーザー名と最高挑戦記録）
+②画面表示内容とデータベースで検索した内容が一致すること
 </t>
     <rPh sb="6" eb="8">
       <t>ガメン</t>
@@ -161,86 +220,74 @@
     <rPh sb="9" eb="11">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>①rankingメソッドを実行</t>
-    <rPh sb="13" eb="15">
-      <t>ジッコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>①ユーザリストが取れること
+    <rPh sb="21" eb="22">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="23" eb="29">
+      <t>サイコウチョウセンキロク</t>
+    </rPh>
+    <rPh sb="32" eb="36">
+      <t>ガメンヒョウジ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>イッチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①ユーザーリストが取れること
 ③Rankingビューが戻されること</t>
-    <rPh sb="8" eb="9">
+    <rPh sb="9" eb="10">
       <t>ト</t>
     </rPh>
-    <rPh sb="26" eb="27">
+    <rPh sb="27" eb="28">
       <t>モド</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>①画面正常に表示されていること</t>
-    <rPh sb="1" eb="3">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>セイジョウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>データベース中ユーザリストがあるとき</t>
+    <t>データベース中ユーザー情報が全くないとき</t>
     <rPh sb="6" eb="7">
       <t>ナカ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>①画面の内容とデータベースの内容が一致していること</t>
-    <rPh sb="1" eb="3">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>イッチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>データベース中ユーザ情報が全くないとき</t>
+    <rPh sb="11" eb="13">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>マッタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データベース中ユーザーリストがあるとき</t>
     <rPh sb="6" eb="7">
       <t>ナカ</t>
     </rPh>
-    <rPh sb="10" eb="12">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>マッタ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>①データベースのm_userテーブルにデータを作る</t>
-    <rPh sb="23" eb="24">
-      <t>ツク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>①データベースのm_userテーブルを空にする</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①最高挑戦記録が降順のユーザーリストが取れること
+③Rankingビューが戻されること</t>
+    <rPh sb="1" eb="7">
+      <t>サイコウチョウセンキロク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>コウジュン</t>
+    </rPh>
     <rPh sb="19" eb="20">
-      <t>カラ</t>
+      <t>ト</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>モド</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -249,7 +296,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -286,6 +333,13 @@
       <name val="游ゴシック Medium"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -944,11 +998,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2"/>
@@ -968,13 +1022,13 @@
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E1" s="27" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F1" s="28"/>
     </row>
@@ -982,13 +1036,13 @@
       <c r="A2" s="23"/>
       <c r="B2" s="24"/>
       <c r="C2" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F2" s="26"/>
     </row>
@@ -1020,10 +1074,10 @@
         <v>8</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="14"/>
@@ -1033,13 +1087,13 @@
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="14"/>
@@ -1049,13 +1103,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="14"/>
@@ -1160,7 +1214,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
@@ -1184,13 +1238,13 @@
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E1" s="27" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F1" s="28"/>
     </row>
@@ -1198,13 +1252,13 @@
       <c r="A2" s="23"/>
       <c r="B2" s="24"/>
       <c r="C2" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F2" s="26"/>
     </row>
@@ -1236,14 +1290,12 @@
         <v>8</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>10</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="E4" s="2"/>
       <c r="F4" s="14"/>
     </row>
     <row r="5" spans="1:6" ht="88.5" customHeight="1">

--- a/YSteam開発資料まとめ/試験項目書/試験項目書_ranking-ヨウ修正版.xlsx
+++ b/YSteam開発資料まとめ/試験項目書/試験項目書_ranking-ヨウ修正版.xlsx
@@ -3,20 +3,22 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60FC5F61-AEFE-4371-816B-49FDBEE7B5D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71B15B83-F3A1-45A0-A81B-D4408ACB39B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="単体試験項目書" sheetId="8" r:id="rId1"/>
-    <sheet name="結合試験項目書" sheetId="10" r:id="rId2"/>
+    <sheet name="単体試験証跡" sheetId="11" r:id="rId2"/>
+    <sheet name="結合試験項目書" sheetId="10" r:id="rId3"/>
+    <sheet name="結合試験証跡" sheetId="12" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -164,24 +166,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>①rankingメソッドを実行</t>
-    <rPh sb="13" eb="15">
-      <t>ジッコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>①ユーザリストが取れること
-③Rankingビューが戻されること</t>
-    <rPh sb="8" eb="9">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>モド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>①画面正常に表示されていること</t>
     <rPh sb="1" eb="3">
       <t>ガメン</t>
@@ -241,6 +225,30 @@
     <t>①データベースのm_userテーブルを空にする</t>
     <rPh sb="19" eb="20">
       <t>カラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1初期表示</t>
+    <rPh sb="1" eb="5">
+      <t>ショキヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2データベースに情報がない時</t>
+    <rPh sb="8" eb="10">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>トキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1データベースに情報があるとき</t>
+    <rPh sb="8" eb="10">
+      <t>ジョウホウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -249,7 +257,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -640,7 +648,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -653,6 +661,310 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>22861</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14C59713-FEF2-42C6-8116-9A0FF6422211}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="10098" t="40610" r="55589" b="22440"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1950720" y="83820"/>
+          <a:ext cx="2667000" cy="1615441"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>502920</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>22859</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F981EDB-D4DD-49F1-9275-3619524C52E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="7646" t="7321" r="56080" b="40043"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4770120" y="22859"/>
+          <a:ext cx="2819400" cy="2301241"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D24FCC80-14A2-4F25-B2DD-6CB99E03A302}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="4805" t="9064" r="63529" b="13724"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5189220" y="2659380"/>
+          <a:ext cx="2461260" cy="2225040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>22859</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>174338</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="図 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DB5A8F6-2A2A-4E33-96C3-A2E4F381AC6A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="10381" t="28828" r="56417" b="49582"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1988820" y="2705099"/>
+          <a:ext cx="3062318" cy="1645921"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>137161</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BFDB46A-BC92-4358-801D-69DCF036CCBC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="-686" t="1569" r="33235" b="49281"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3916680" y="0"/>
+          <a:ext cx="5242560" cy="2148841"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>137161</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DABEAF8-F2EB-4845-83E7-084D9A6AA750}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect t="7843" r="60784" b="16165"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="792480" y="0"/>
+          <a:ext cx="3048000" cy="3322321"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -942,16 +1254,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.21875" style="1" customWidth="1"/>
@@ -962,7 +1274,7 @@
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" customHeight="1">
+    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
         <v>6</v>
       </c>
@@ -978,7 +1290,7 @@
       </c>
       <c r="F1" s="28"/>
     </row>
-    <row r="2" spans="1:6" ht="14.4" customHeight="1">
+    <row r="2" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="23"/>
       <c r="B2" s="24"/>
       <c r="C2" s="8" t="s">
@@ -992,7 +1304,7 @@
       </c>
       <c r="F2" s="26"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
         <v>0</v>
       </c>
@@ -1012,55 +1324,53 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="88.5" customHeight="1">
+    <row r="4" spans="1:6" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="13">
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F4" s="14"/>
     </row>
-    <row r="5" spans="1:6" ht="88.5" customHeight="1">
+    <row r="5" spans="1:6" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="13">
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="D5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F5" s="14"/>
     </row>
-    <row r="6" spans="1:6" ht="88.5" customHeight="1">
+    <row r="6" spans="1:6" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="13">
         <v>3</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>23</v>
-      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="4"/>
       <c r="E6" s="2"/>
       <c r="F6" s="14"/>
     </row>
-    <row r="7" spans="1:6" ht="88.5" customHeight="1">
+    <row r="7" spans="1:6" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13">
         <v>4</v>
       </c>
@@ -1070,7 +1380,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="14"/>
     </row>
-    <row r="8" spans="1:6" ht="88.5" customHeight="1">
+    <row r="8" spans="1:6" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="13">
         <v>5</v>
       </c>
@@ -1080,17 +1390,19 @@
       <c r="E8" s="2"/>
       <c r="F8" s="14"/>
     </row>
-    <row r="9" spans="1:6" ht="88.5" customHeight="1">
+    <row r="9" spans="1:6" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="13">
         <v>6</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
-      <c r="D9" s="4"/>
+      <c r="D9" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="E9" s="2"/>
-      <c r="F9" s="14"/>
-    </row>
-    <row r="10" spans="1:6" ht="88.5" customHeight="1">
+      <c r="F9" s="15"/>
+    </row>
+    <row r="10" spans="1:6" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="13">
         <v>7</v>
       </c>
@@ -1098,47 +1410,25 @@
       <c r="C10" s="3"/>
       <c r="D10" s="4"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="14"/>
-    </row>
-    <row r="11" spans="1:6" ht="88.5" customHeight="1">
+      <c r="F10" s="15"/>
+    </row>
+    <row r="11" spans="1:6" ht="88.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
         <v>8</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="15"/>
-    </row>
-    <row r="12" spans="1:6" ht="88.5" customHeight="1">
-      <c r="A12" s="13">
-        <v>9</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="15"/>
-    </row>
-    <row r="13" spans="1:6" ht="88.5" customHeight="1" thickBot="1">
-      <c r="A13" s="16">
-        <v>10</v>
-      </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="20"/>
-    </row>
-    <row r="14" spans="1:6" ht="70.2" customHeight="1"/>
-    <row r="15" spans="1:6" ht="100.2" customHeight="1"/>
-    <row r="16" spans="1:6" ht="100.2" customHeight="1"/>
-    <row r="17" ht="100.2" customHeight="1"/>
-    <row r="18" ht="100.2" customHeight="1"/>
-    <row r="19" ht="100.2" customHeight="1"/>
-    <row r="20" ht="100.2" customHeight="1"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="20"/>
+    </row>
+    <row r="12" spans="1:6" ht="70.2" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:6" ht="100.2" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:6" ht="100.2" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:6" ht="100.2" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:6" ht="100.2" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" ht="100.2" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" ht="100.2" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:B2"/>
@@ -1147,7 +1437,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E13" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E11" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"OK,NG,実施不可"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1157,6 +1447,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C1DAD43-2C19-4B0E-BF8F-2C229EED1C17}">
+  <dimension ref="A1:A15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F20"/>
   <sheetViews>
@@ -1164,10 +1482,10 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.21875" style="1" customWidth="1"/>
@@ -1178,7 +1496,7 @@
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" customHeight="1">
+    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
         <v>7</v>
       </c>
@@ -1194,7 +1512,7 @@
       </c>
       <c r="F1" s="28"/>
     </row>
-    <row r="2" spans="1:6" ht="14.4" customHeight="1">
+    <row r="2" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="23"/>
       <c r="B2" s="24"/>
       <c r="C2" s="8" t="s">
@@ -1208,7 +1526,7 @@
       </c>
       <c r="F2" s="26"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
         <v>0</v>
       </c>
@@ -1228,7 +1546,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="88.5" customHeight="1">
+    <row r="4" spans="1:6" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="13">
         <v>1</v>
       </c>
@@ -1246,7 +1564,7 @@
       </c>
       <c r="F4" s="14"/>
     </row>
-    <row r="5" spans="1:6" ht="88.5" customHeight="1">
+    <row r="5" spans="1:6" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="13">
         <v>2</v>
       </c>
@@ -1256,7 +1574,7 @@
       <c r="E5" s="2"/>
       <c r="F5" s="14"/>
     </row>
-    <row r="6" spans="1:6" ht="88.5" customHeight="1">
+    <row r="6" spans="1:6" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="13">
         <v>3</v>
       </c>
@@ -1266,7 +1584,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="14"/>
     </row>
-    <row r="7" spans="1:6" ht="88.5" customHeight="1">
+    <row r="7" spans="1:6" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13">
         <v>4</v>
       </c>
@@ -1276,7 +1594,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="14"/>
     </row>
-    <row r="8" spans="1:6" ht="88.5" customHeight="1">
+    <row r="8" spans="1:6" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="13">
         <v>5</v>
       </c>
@@ -1286,7 +1604,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="14"/>
     </row>
-    <row r="9" spans="1:6" ht="88.5" customHeight="1">
+    <row r="9" spans="1:6" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="13">
         <v>6</v>
       </c>
@@ -1296,7 +1614,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="14"/>
     </row>
-    <row r="10" spans="1:6" ht="88.5" customHeight="1">
+    <row r="10" spans="1:6" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="13">
         <v>7</v>
       </c>
@@ -1306,7 +1624,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="14"/>
     </row>
-    <row r="11" spans="1:6" ht="88.5" customHeight="1">
+    <row r="11" spans="1:6" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="13">
         <v>8</v>
       </c>
@@ -1316,7 +1634,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="15"/>
     </row>
-    <row r="12" spans="1:6" ht="88.5" customHeight="1">
+    <row r="12" spans="1:6" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="13">
         <v>9</v>
       </c>
@@ -1326,7 +1644,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="15"/>
     </row>
-    <row r="13" spans="1:6" ht="88.5" customHeight="1" thickBot="1">
+    <row r="13" spans="1:6" ht="88.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="16">
         <v>10</v>
       </c>
@@ -1336,13 +1654,13 @@
       <c r="E13" s="19"/>
       <c r="F13" s="20"/>
     </row>
-    <row r="14" spans="1:6" ht="70.2" customHeight="1"/>
-    <row r="15" spans="1:6" ht="100.2" customHeight="1"/>
-    <row r="16" spans="1:6" ht="100.2" customHeight="1"/>
-    <row r="17" ht="100.2" customHeight="1"/>
-    <row r="18" ht="100.2" customHeight="1"/>
-    <row r="19" ht="100.2" customHeight="1"/>
-    <row r="20" ht="100.2" customHeight="1"/>
+    <row r="14" spans="1:6" ht="70.2" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:6" ht="100.2" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:6" ht="100.2" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" ht="100.2" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" ht="100.2" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" ht="100.2" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" ht="100.2" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:B2"/>
@@ -1358,4 +1676,29 @@
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45055B36-78CB-4AAF-AF25-2F5CAEF3815C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R13" sqref="R13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>